--- a/sequences/TSRlearn_blockA.xlsx
+++ b/sequences/TSRlearn_blockA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sync_folder\TSRlearn-task\sequences\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sync_folder\TSRlearn_BIE\sequences\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,10 +32,10 @@
     <t>condFileretr</t>
   </si>
   <si>
-    <t>sequences/learning_blockA_fixed-middle-10_17.xlsx</t>
+    <t>sequences/learning_blockA_fixed-middle-10_02.xlsx</t>
   </si>
   <si>
-    <t>sequences/retrieval_blockA_fixed-middle-10_17.xlsx</t>
+    <t>sequences/retrieval_blockA_fixed-middle-10_02.xlsx</t>
   </si>
 </sst>
 </file>
